--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -24,139 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Username</t>
+    <t>https://livingliquidz.com/products/single-malts/malt-whiskey/396</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Price High to Low</t>
   </si>
   <si>
-    <t>username1</t>
+    <t>Name A - Z</t>
   </si>
   <si>
-    <t>username3</t>
-  </si>
-  <si>
-    <t>username4</t>
-  </si>
-  <si>
-    <t>username5</t>
-  </si>
-  <si>
-    <t>username6</t>
-  </si>
-  <si>
-    <t>username7</t>
-  </si>
-  <si>
-    <t>username8</t>
-  </si>
-  <si>
-    <t>username9</t>
-  </si>
-  <si>
-    <t>username10</t>
-  </si>
-  <si>
-    <t>username11</t>
-  </si>
-  <si>
-    <t>username12</t>
-  </si>
-  <si>
-    <t>username13</t>
-  </si>
-  <si>
-    <t>username14</t>
-  </si>
-  <si>
-    <t>username15</t>
-  </si>
-  <si>
-    <t>username16</t>
-  </si>
-  <si>
-    <t>username17</t>
-  </si>
-  <si>
-    <t>username18</t>
-  </si>
-  <si>
-    <t>username19</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>password7</t>
-  </si>
-  <si>
-    <t>password8</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>password10</t>
-  </si>
-  <si>
-    <t>password11</t>
-  </si>
-  <si>
-    <t>password12</t>
-  </si>
-  <si>
-    <t>password13</t>
-  </si>
-  <si>
-    <t>password14</t>
-  </si>
-  <si>
-    <t>password15</t>
-  </si>
-  <si>
-    <t>password16</t>
-  </si>
-  <si>
-    <t>password17</t>
-  </si>
-  <si>
-    <t>password18</t>
-  </si>
-  <si>
-    <t>password19</t>
-  </si>
-  <si>
-    <t>Test write data</t>
-  </si>
-  <si>
-    <t>45th row data write</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>password6</t>
+    <t>Malt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +76,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,172 +376,30 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>